--- a/data/trans_orig/P79$alquiler_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79$alquiler_2023-Edad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15312</v>
+        <v>13895</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01145313400539803</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04050436500660369</v>
+        <v>0.03675725846022238</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -762,19 +762,19 @@
         <v>21924</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11512</v>
+        <v>11976</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37913</v>
+        <v>37667</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06499119612638819</v>
+        <v>0.06499119612638821</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03412714622303531</v>
+        <v>0.0355009199524173</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.112389940907661</v>
+        <v>0.1116592990501286</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -783,19 +783,19 @@
         <v>26254</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14470</v>
+        <v>14137</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47885</v>
+        <v>42706</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03669954701113646</v>
+        <v>0.03669954701113645</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02022690289522064</v>
+        <v>0.01976202819003768</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06693777262983187</v>
+        <v>0.05969778575944477</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7910</v>
+        <v>8149</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003973143956841773</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02092503369034248</v>
+        <v>0.02155733697096502</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9052</v>
+        <v>7683</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002099567863650413</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01265400661053454</v>
+        <v>0.01074019006514755</v>
       </c>
     </row>
     <row r="6">
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10230</v>
+        <v>9158</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005979975641702689</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03032659933347931</v>
+        <v>0.02714705769029161</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8331</v>
+        <v>10286</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002819917808633032</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01164561553097534</v>
+        <v>0.01437896595713127</v>
       </c>
     </row>
     <row r="7">
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19635</v>
+        <v>20359</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01701805171175466</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05194006133265591</v>
+        <v>0.05385650196009227</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9250</v>
+        <v>9383</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.00546341927656766</v>
+        <v>0.005463419276567661</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02741962396537477</v>
+        <v>0.02781398697351544</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>8276</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1821</v>
+        <v>1850</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22986</v>
+        <v>25634</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01156934828410739</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002545061746267094</v>
+        <v>0.002585778667263757</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03213243317486374</v>
+        <v>0.03583333453345904</v>
       </c>
     </row>
     <row r="8">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10127</v>
+        <v>9514</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.004735554726661038</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02678914855624574</v>
+        <v>0.02516750404355769</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8972</v>
+        <v>10976</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002502456147740153</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01254213810758037</v>
+        <v>0.01534363435132282</v>
       </c>
     </row>
     <row r="10">
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12358</v>
+        <v>14705</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006456927704676256</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03269127287065217</v>
+        <v>0.03889949976274971</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13365</v>
+        <v>11117</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01039725835456257</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0396178040222445</v>
+        <v>0.03295633635943426</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1161,19 +1161,19 @@
         <v>5948</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1471</v>
+        <v>1455</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16572</v>
+        <v>16116</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008315030352123363</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002056587484121102</v>
+        <v>0.002033908516360448</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02316592127889365</v>
+        <v>0.02252901450457142</v>
       </c>
     </row>
     <row r="11">
@@ -1190,19 +1190,19 @@
         <v>324045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>300219</v>
+        <v>301319</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>343280</v>
+        <v>342713</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8571996491898581</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7941742563436797</v>
+        <v>0.7970829934554783</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.908082498889182</v>
+        <v>0.9065844750171813</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>160</v>
@@ -1211,19 +1211,19 @@
         <v>274398</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>253089</v>
+        <v>252628</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>291201</v>
+        <v>291404</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.813425136492583</v>
+        <v>0.8134251364925831</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7502550656467768</v>
+        <v>0.7488877617931025</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8632339296782758</v>
+        <v>0.8638362887979496</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>300</v>
@@ -1232,19 +1232,19 @@
         <v>598443</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>564423</v>
+        <v>568987</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>625712</v>
+        <v>625619</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8365573363586088</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7890006655511058</v>
+        <v>0.795381746956459</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8746770364779115</v>
+        <v>0.8745460185430758</v>
       </c>
     </row>
     <row r="12">
@@ -1261,19 +1261,19 @@
         <v>15835</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5978</v>
+        <v>5849</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34724</v>
+        <v>37227</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04188749257538208</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01581432474084755</v>
+        <v>0.01547123612653425</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09185485921414389</v>
+        <v>0.09847704252446862</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1282,19 +1282,19 @@
         <v>13571</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6108</v>
+        <v>6308</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28926</v>
+        <v>28523</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04023092659250631</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01810627769348859</v>
+        <v>0.01870053950016927</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08574842929936677</v>
+        <v>0.08455394739092457</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -1303,19 +1303,19 @@
         <v>29406</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16796</v>
+        <v>16587</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>50262</v>
+        <v>49288</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04110632218336407</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02347846277562013</v>
+        <v>0.02318713446432486</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07026105246817091</v>
+        <v>0.06889923174014223</v>
       </c>
     </row>
     <row r="13">
@@ -1332,19 +1332,19 @@
         <v>36472</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19822</v>
+        <v>21883</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55648</v>
+        <v>58355</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09647984079981964</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05243526009135113</v>
+        <v>0.05788654863993129</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1472075913488792</v>
+        <v>0.1543685809214875</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -1353,19 +1353,19 @@
         <v>50768</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35748</v>
+        <v>35881</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68769</v>
+        <v>70075</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1504969289780177</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1059711813947634</v>
+        <v>0.106366542985653</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2038599091229196</v>
+        <v>0.2077287940997714</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -1374,19 +1374,19 @@
         <v>87240</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64300</v>
+        <v>64656</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>113615</v>
+        <v>118110</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1219521433727496</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08988436791967001</v>
+        <v>0.0903818711021384</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1588211296797037</v>
+        <v>0.1651042026450334</v>
       </c>
     </row>
     <row r="14">
@@ -1403,19 +1403,19 @@
         <v>7935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1501</v>
+        <v>1480</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22671</v>
+        <v>23190</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02099119566859643</v>
+        <v>0.02099119566859644</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003971057220604181</v>
+        <v>0.003916000341097024</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05997196959630292</v>
+        <v>0.06134418315204086</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1437,19 +1437,19 @@
         <v>7935</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1489</v>
+        <v>1515</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22676</v>
+        <v>24383</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01109258570142918</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002081455197262398</v>
+        <v>0.002118291716416334</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03169906086336895</v>
+        <v>0.03408540763046156</v>
       </c>
     </row>
     <row r="15">
@@ -1470,19 +1470,19 @@
         <v>11527</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4673</v>
+        <v>5314</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>22942</v>
+        <v>23758</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02456463758827897</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.009958117539228754</v>
+        <v>0.0113240847815018</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04888883298746561</v>
+        <v>0.05062961633793154</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>17</v>
@@ -1491,19 +1491,19 @@
         <v>18745</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11121</v>
+        <v>11179</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>29219</v>
+        <v>29324</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.03870144002754305</v>
+        <v>0.03870144002754304</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02296009097499384</v>
+        <v>0.02307919679875681</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06032397286789908</v>
+        <v>0.06054174498108568</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>24</v>
@@ -1512,19 +1512,19 @@
         <v>30273</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>19451</v>
+        <v>20389</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>44156</v>
+        <v>45607</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03174496617078862</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02039651108104888</v>
+        <v>0.02138063835773359</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04630308005993778</v>
+        <v>0.04782530398787928</v>
       </c>
     </row>
     <row r="16">
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7140</v>
+        <v>6529</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002743666113919032</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01521532186357199</v>
+        <v>0.01391279395613491</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1565,16 +1565,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5642</v>
+        <v>6302</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.002012042168828268</v>
+        <v>0.002012042168828267</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01164743488867569</v>
+        <v>0.01301132527751539</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7347</v>
+        <v>7506</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002372061548660839</v>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007704370814592031</v>
+        <v>0.0078709886331704</v>
       </c>
     </row>
     <row r="17">
@@ -1662,16 +1662,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9365</v>
+        <v>10145</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.006146026591114884</v>
+        <v>0.006146026591114885</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01995693996918295</v>
+        <v>0.02161926928849629</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4407</v>
+        <v>4979</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001834941863347174</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.009099188168991915</v>
+        <v>0.01027878459354876</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -1701,19 +1701,19 @@
         <v>3773</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10750</v>
+        <v>10198</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.003956351448846805</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0009126760548777659</v>
+        <v>0.0009276834561079647</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01127289709391216</v>
+        <v>0.01069366225666091</v>
       </c>
     </row>
     <row r="19">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4841</v>
+        <v>4639</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002054358965082459</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.00999515310899125</v>
+        <v>0.009577794270814059</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5581</v>
+        <v>5007</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001043444757687681</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.005852473561765523</v>
+        <v>0.005250334422888826</v>
       </c>
     </row>
     <row r="20">
@@ -1793,19 +1793,19 @@
         <v>6030</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2174</v>
+        <v>2326</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13695</v>
+        <v>13957</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01284930053913062</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004632505832060162</v>
+        <v>0.004956943363613922</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02918473174953736</v>
+        <v>0.02974206807371698</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1814,19 +1814,19 @@
         <v>4073</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1318</v>
+        <v>1336</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10004</v>
+        <v>10277</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.008409414863658368</v>
+        <v>0.008409414863658366</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002720428243551292</v>
+        <v>0.002758193142123627</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02065311537716533</v>
+        <v>0.02121743899251646</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -1835,19 +1835,19 @@
         <v>10103</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4581</v>
+        <v>4921</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18709</v>
+        <v>18485</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01059420514852629</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004804286696674312</v>
+        <v>0.005160729766059469</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01961848973091523</v>
+        <v>0.01938357814268665</v>
       </c>
     </row>
     <row r="21">
@@ -1864,19 +1864,19 @@
         <v>5773</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16304</v>
+        <v>17869</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01230264213870303</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002651498537739197</v>
+        <v>0.002632495953604988</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0347430457869893</v>
+        <v>0.03807888991182392</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1885,19 +1885,19 @@
         <v>3399</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9176</v>
+        <v>8974</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.007017607294863623</v>
+        <v>0.007017607294863622</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.002259851673777965</v>
+        <v>0.002246660551638326</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01894429917969161</v>
+        <v>0.01852732529067448</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -1906,19 +1906,19 @@
         <v>9172</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3001</v>
+        <v>3441</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>19879</v>
+        <v>20545</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.009618280741433975</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003146826734849629</v>
+        <v>0.003608308274741655</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02084550782281058</v>
+        <v>0.0215443466225442</v>
       </c>
     </row>
     <row r="22">
@@ -1935,19 +1935,19 @@
         <v>401778</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>379919</v>
+        <v>379734</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>418714</v>
+        <v>419576</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8561952618583621</v>
+        <v>0.8561952618583623</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8096124113964742</v>
+        <v>0.8092182480447493</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8922859967897464</v>
+        <v>0.8941229733748378</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>379</v>
@@ -1956,19 +1956,19 @@
         <v>408727</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>392445</v>
+        <v>390749</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>424431</v>
+        <v>424133</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8438471560782109</v>
+        <v>0.8438471560782108</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8102330233993333</v>
+        <v>0.8067316313058384</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8762705338089086</v>
+        <v>0.875655728194135</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>632</v>
@@ -1977,19 +1977,19 @@
         <v>810505</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>784657</v>
+        <v>783807</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>836235</v>
+        <v>833248</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8499234435137261</v>
+        <v>0.8499234435137262</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8228181287394805</v>
+        <v>0.8219271958842914</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8769045438134078</v>
+        <v>0.873772228576966</v>
       </c>
     </row>
     <row r="23">
@@ -2006,19 +2006,19 @@
         <v>28889</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17040</v>
+        <v>17473</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>44761</v>
+        <v>44967</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.0615627828526927</v>
+        <v>0.06156278285269272</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03631319948462253</v>
+        <v>0.03723475378351496</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09538575841547878</v>
+        <v>0.09582499903516206</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -2027,19 +2027,19 @@
         <v>14885</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7913</v>
+        <v>8027</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25000</v>
+        <v>24067</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.03073215280302102</v>
+        <v>0.03073215280302103</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01633753434001703</v>
+        <v>0.01657159713726769</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05161433334146156</v>
+        <v>0.04968882716002666</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>31</v>
@@ -2048,19 +2048,19 @@
         <v>43774</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>29191</v>
+        <v>29410</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>59832</v>
+        <v>61962</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0459033679946633</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03061097635898646</v>
+        <v>0.03084033792754472</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06274171583278061</v>
+        <v>0.06497547820509497</v>
       </c>
     </row>
     <row r="24">
@@ -2077,19 +2077,19 @@
         <v>34078</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23148</v>
+        <v>22413</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>49583</v>
+        <v>49550</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07262038735475713</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04932860768093252</v>
+        <v>0.04776191073946653</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1056614515294245</v>
+        <v>0.1055920560751842</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>40</v>
@@ -2098,19 +2098,19 @@
         <v>44870</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31621</v>
+        <v>32539</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>58841</v>
+        <v>59610</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.09263799246965608</v>
+        <v>0.09263799246965607</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06528462114711209</v>
+        <v>0.06717826240429559</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1214824804655317</v>
+        <v>0.1230687526618152</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>63</v>
@@ -2119,19 +2119,19 @@
         <v>78948</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>59610</v>
+        <v>60681</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>98114</v>
+        <v>101092</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08278767820977333</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06250865663908425</v>
+        <v>0.06363184884992806</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.102885716197484</v>
+        <v>0.1060090152587514</v>
       </c>
     </row>
     <row r="25">
@@ -2164,16 +2164,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9691</v>
+        <v>9725</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.005768363411200597</v>
+        <v>0.005768363411200596</v>
       </c>
       <c r="O25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02000781469719748</v>
+        <v>0.02007807120446667</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8691</v>
+        <v>10267</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002929852408541025</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009113650425704268</v>
+        <v>0.01076616171915807</v>
       </c>
     </row>
     <row r="26">
@@ -2215,19 +2215,19 @@
         <v>28264</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19278</v>
+        <v>18482</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>41565</v>
+        <v>41374</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04713085962982044</v>
+        <v>0.04713085962982045</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03214680175520032</v>
+        <v>0.03081968370854806</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06931067683226</v>
+        <v>0.06899181721256271</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -2236,19 +2236,19 @@
         <v>16162</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10718</v>
+        <v>10183</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25273</v>
+        <v>23389</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.02671367051947828</v>
+        <v>0.02671367051947827</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01771540695792883</v>
+        <v>0.0168313072997026</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0417720455246219</v>
+        <v>0.03865868951574117</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>46</v>
@@ -2257,19 +2257,19 @@
         <v>44426</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>32777</v>
+        <v>32639</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>57492</v>
+        <v>58685</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03687719361116738</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02720753140709808</v>
+        <v>0.0270931558111664</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04772339507974879</v>
+        <v>0.04871322337822367</v>
       </c>
     </row>
     <row r="27">
@@ -2286,19 +2286,19 @@
         <v>3341</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9942</v>
+        <v>9044</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.005571939359009779</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.00184051758324792</v>
+        <v>0.001829712915603787</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01657773013974717</v>
+        <v>0.01508106960918562</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5278</v>
+        <v>5350</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.002486634389945942</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.008723430226620229</v>
+        <v>0.008842894619808514</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5</v>
@@ -2328,19 +2328,19 @@
         <v>4846</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1823</v>
+        <v>1516</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>11138</v>
+        <v>11295</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.004022475985403344</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.001513062618214376</v>
+        <v>0.001258210824697259</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.009245575217155131</v>
+        <v>0.009375638455556572</v>
       </c>
     </row>
     <row r="28">
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.008027921576673338</v>
+        <v>0.0080282771640394</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4047</v>
+        <v>4686</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0006722812606326999</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.003359201788437384</v>
+        <v>0.003889872447960332</v>
       </c>
     </row>
     <row r="29">
@@ -2420,19 +2420,19 @@
         <v>5754</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1687</v>
+        <v>1997</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13482</v>
+        <v>13003</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.009595705497451989</v>
+        <v>0.009595705497451991</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002813131671566796</v>
+        <v>0.003330793656695274</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02248231731538834</v>
+        <v>0.02168352169506918</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2444,16 +2444,16 @@
         <v>700</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5940</v>
+        <v>6010</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.003669748409165084</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001156210449047101</v>
+        <v>0.001157139214238733</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.009818574113481207</v>
+        <v>0.009933154952033904</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -2462,19 +2462,19 @@
         <v>7975</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3179</v>
+        <v>3569</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>14853</v>
+        <v>16058</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.006619645252538802</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0026390550856693</v>
+        <v>0.00296271374546267</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01232901516481667</v>
+        <v>0.01332976983373492</v>
       </c>
     </row>
     <row r="30">
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5696</v>
+        <v>5647</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.001883651941538664</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.009498051804263214</v>
+        <v>0.009417209469628094</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -2512,19 +2512,19 @@
         <v>3158</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>748</v>
+        <v>801</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7952</v>
+        <v>7816</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.005220446389091801</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001236009033581786</v>
+        <v>0.001324742683269522</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01314335254236613</v>
+        <v>0.01291895207867276</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -2533,19 +2533,19 @@
         <v>4288</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10674</v>
+        <v>9617</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.003559415223800416</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.00129894540579143</v>
+        <v>0.001288595431629025</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.00886024946042507</v>
+        <v>0.007982935663909766</v>
       </c>
     </row>
     <row r="31">
@@ -2562,19 +2562,19 @@
         <v>9211</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4579</v>
+        <v>4514</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18168</v>
+        <v>18115</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01535879316468979</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.007636102645308278</v>
+        <v>0.007527826746650884</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03029504250718905</v>
+        <v>0.03020800189992577</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>11</v>
@@ -2583,19 +2583,19 @@
         <v>9062</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4756</v>
+        <v>4883</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16246</v>
+        <v>16000</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01497768656047517</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.007860215330984809</v>
+        <v>0.008070166313845226</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0268517737071877</v>
+        <v>0.02644610336747013</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>19</v>
@@ -2604,19 +2604,19 @@
         <v>18272</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10943</v>
+        <v>10867</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>27978</v>
+        <v>29144</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01516739856007499</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.009083902032568456</v>
+        <v>0.00902042144766551</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0232242376659802</v>
+        <v>0.02419220650508851</v>
       </c>
     </row>
     <row r="32">
@@ -2633,19 +2633,19 @@
         <v>5355</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1965</v>
+        <v>1769</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11715</v>
+        <v>12681</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.008929793546844925</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003276464780072319</v>
+        <v>0.002950412458449161</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01953438657903401</v>
+        <v>0.02114569318530078</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -2654,19 +2654,19 @@
         <v>9834</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5431</v>
+        <v>4983</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16211</v>
+        <v>16270</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01625410747584728</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008975995922563106</v>
+        <v>0.008235692824504658</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02679471292562519</v>
+        <v>0.02689267582196088</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>17</v>
@@ -2675,19 +2675,19 @@
         <v>15189</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>9098</v>
+        <v>8777</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>24259</v>
+        <v>23514</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0126081191203548</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.007552028206739139</v>
+        <v>0.007285976136523879</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02013661504042313</v>
+        <v>0.01951858000555042</v>
       </c>
     </row>
     <row r="33">
@@ -2704,19 +2704,19 @@
         <v>507502</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>486461</v>
+        <v>488782</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>524861</v>
+        <v>525542</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8462731512196465</v>
+        <v>0.8462731512196466</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8111862836151869</v>
+        <v>0.8150565441714244</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.875218636146521</v>
+        <v>0.8763540260228639</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>722</v>
@@ -2725,19 +2725,19 @@
         <v>524359</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>507621</v>
+        <v>510663</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>538616</v>
+        <v>538456</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.8666940243769149</v>
+        <v>0.8666940243769151</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.8390286131832658</v>
+        <v>0.8440563208790843</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.8902598679404031</v>
+        <v>0.8899952995698921</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1171</v>
@@ -2746,19 +2746,19 @@
         <v>1031861</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1006070</v>
+        <v>1006219</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1054106</v>
+        <v>1054523</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.8565286673943899</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.8351204005632656</v>
+        <v>0.8352440321226648</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.8749941453817146</v>
+        <v>0.8753397757976256</v>
       </c>
     </row>
     <row r="34">
@@ -2775,19 +2775,19 @@
         <v>27084</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>17735</v>
+        <v>18119</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>40698</v>
+        <v>40103</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04516283040172755</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02957281099519145</v>
+        <v>0.03021408493126253</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06786484535409136</v>
+        <v>0.0668721875429678</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>27</v>
@@ -2796,19 +2796,19 @@
         <v>21830</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>14940</v>
+        <v>14731</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>32256</v>
+        <v>32123</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03608152139726076</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02469339514999861</v>
+        <v>0.02434906107263286</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05331539871378885</v>
+        <v>0.0530947884586901</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>50</v>
@@ -2817,19 +2817,19 @@
         <v>48913</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>36539</v>
+        <v>37040</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>64078</v>
+        <v>66000</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04060212867923522</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03033072521560597</v>
+        <v>0.03074587515589022</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05318977990955778</v>
+        <v>0.05478575090863399</v>
       </c>
     </row>
     <row r="35">
@@ -2846,19 +2846,19 @@
         <v>39010</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>28255</v>
+        <v>28921</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>54848</v>
+        <v>53079</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06504934635915972</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04711559509632842</v>
+        <v>0.04822729556357724</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0914598127371279</v>
+        <v>0.08851085116080699</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>59</v>
@@ -2867,19 +2867,19 @@
         <v>46255</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>35835</v>
+        <v>35320</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>60245</v>
+        <v>57135</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07645347204999924</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05922981309613608</v>
+        <v>0.05837894002416876</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09957755052619773</v>
+        <v>0.09443643094124604</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>94</v>
@@ -2888,19 +2888,19 @@
         <v>85265</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>69387</v>
+        <v>68618</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>102721</v>
+        <v>103335</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.07077658410166451</v>
+        <v>0.07077658410166453</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05759656336037607</v>
+        <v>0.05695837516779242</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08526692101996193</v>
+        <v>0.08577647369759026</v>
       </c>
     </row>
     <row r="36">
@@ -2917,19 +2917,19 @@
         <v>3846</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10619</v>
+        <v>10540</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.006413499899227038</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.001877133207480621</v>
+        <v>0.001899533525291215</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01770773603825414</v>
+        <v>0.01757615000832576</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -2938,19 +2938,19 @@
         <v>3204</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8101</v>
+        <v>7597</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.005296357378846487</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.001382406008452502</v>
+        <v>0.001376653120275676</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01339008402082907</v>
+        <v>0.01255698770565631</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7</v>
@@ -2959,19 +2959,19 @@
         <v>7050</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2982</v>
+        <v>2950</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>14864</v>
+        <v>14480</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005852462518551744</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002475044759085862</v>
+        <v>0.00244879103617692</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01233821713095024</v>
+        <v>0.01201962332523211</v>
       </c>
     </row>
     <row r="37">
@@ -2992,19 +2992,19 @@
         <v>11940</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6351</v>
+        <v>5636</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>21111</v>
+        <v>20569</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01749537832805645</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.009305868932939452</v>
+        <v>0.008258748602270079</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0309343768999267</v>
+        <v>0.03014015618698128</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>22</v>
@@ -3013,19 +3013,19 @@
         <v>15046</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>9651</v>
+        <v>9774</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>22148</v>
+        <v>22335</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02098207488091108</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01345809497838103</v>
+        <v>0.01363015375475281</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03088497619182025</v>
+        <v>0.03114586153253103</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>33</v>
@@ -3034,19 +3034,19 @@
         <v>26986</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>18286</v>
+        <v>19241</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>36255</v>
+        <v>39137</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01928190040058663</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01306584014768681</v>
+        <v>0.01374837915244517</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02590460704349641</v>
+        <v>0.02796415831725444</v>
       </c>
     </row>
     <row r="38">
@@ -3063,19 +3063,19 @@
         <v>3450</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>9707</v>
+        <v>9217</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.005055984497939874</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.00164891697738642</v>
+        <v>0.001653792538746047</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01422325617133722</v>
+        <v>0.01350636154124792</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>6</v>
@@ -3084,19 +3084,19 @@
         <v>4224</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2023</v>
+        <v>2035</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>9120</v>
+        <v>8486</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.005889709767232703</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.002820921032122803</v>
+        <v>0.002838172585407417</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.0127174456598469</v>
+        <v>0.0118342043505595</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>9</v>
@@ -3105,19 +3105,19 @@
         <v>7674</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3359</v>
+        <v>3826</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>13884</v>
+        <v>14469</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.005483170682180184</v>
+        <v>0.005483170682180182</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.002400258514952144</v>
+        <v>0.002733449851774037</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.009920075274955904</v>
+        <v>0.01033818066123321</v>
       </c>
     </row>
     <row r="39">
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>11651</v>
+        <v>12052</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.004248162055637987</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01707190727368553</v>
+        <v>0.01766036212139014</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>12</v>
@@ -3202,19 +3202,19 @@
         <v>8289</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4677</v>
+        <v>4154</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>13994</v>
+        <v>13658</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.01155839616440868</v>
+        <v>0.01155839616440869</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.006521698099050986</v>
+        <v>0.005793334704254251</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01951471978402796</v>
+        <v>0.01904601585761272</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>14</v>
@@ -3223,19 +3223,19 @@
         <v>11188</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6097</v>
+        <v>6243</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>19508</v>
+        <v>19784</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.00799379761431299</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.004356119618864671</v>
+        <v>0.004460736463547767</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01393908693080071</v>
+        <v>0.01413600400574213</v>
       </c>
     </row>
     <row r="41">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>3723</v>
+        <v>3719</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.001031365746928801</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.00519185780771581</v>
+        <v>0.005185908938663691</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1</v>
@@ -3289,16 +3289,16 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3677</v>
+        <v>3735</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.0005284536935774756</v>
+        <v>0.0005284536935774755</v>
       </c>
       <c r="V41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.002627611123507761</v>
+        <v>0.002668785726909078</v>
       </c>
     </row>
     <row r="42">
@@ -3315,19 +3315,19 @@
         <v>9011</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4450</v>
+        <v>4508</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>16851</v>
+        <v>18077</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01320453758864694</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.006520551050713412</v>
+        <v>0.006606127541318045</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02469183360854978</v>
+        <v>0.02648866779677483</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>8</v>
@@ -3336,19 +3336,19 @@
         <v>5673</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2555</v>
+        <v>2727</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>10666</v>
+        <v>11026</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.007911583518602916</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.003562381611618436</v>
+        <v>0.003802856454593454</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01487369030977178</v>
+        <v>0.01537560233914928</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>16</v>
@@ -3357,19 +3357,19 @@
         <v>14685</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>8932</v>
+        <v>8802</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>24127</v>
+        <v>23905</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01049252088983777</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0063818215969971</v>
+        <v>0.006289010759808141</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01723928336019503</v>
+        <v>0.0170804694823655</v>
       </c>
     </row>
     <row r="43">
@@ -3386,19 +3386,19 @@
         <v>9653</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>4509</v>
+        <v>4788</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>17935</v>
+        <v>19236</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01414435707448148</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.006606733363222901</v>
+        <v>0.0070155825007577</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02628013858875467</v>
+        <v>0.02818710908614942</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>15</v>
@@ -3407,19 +3407,19 @@
         <v>10538</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>6347</v>
+        <v>5748</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>16863</v>
+        <v>17059</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.0146960091699501</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.008850659715949689</v>
+        <v>0.008016320032065495</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02351610823425673</v>
+        <v>0.02378831585003</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>23</v>
@@ -3428,19 +3428,19 @@
         <v>20191</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>12848</v>
+        <v>12761</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>29352</v>
+        <v>30292</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01442701391885337</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.009179873981550159</v>
+        <v>0.009118059292482463</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02097274208992898</v>
+        <v>0.02164418216100571</v>
       </c>
     </row>
     <row r="44">
@@ -3457,19 +3457,19 @@
         <v>583278</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>564240</v>
+        <v>563628</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>601453</v>
+        <v>600186</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8546948952794909</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8267983777066196</v>
+        <v>0.8259008787748914</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.881326602664055</v>
+        <v>0.8794709517675057</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>973</v>
@@ -3478,19 +3478,19 @@
         <v>619711</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>604856</v>
+        <v>603849</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>633880</v>
+        <v>633490</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.8641920260905802</v>
+        <v>0.8641920260905803</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8434761509554962</v>
+        <v>0.8420716509496995</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8839503097251979</v>
+        <v>0.8834062220665569</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1535</v>
@@ -3499,19 +3499,19 @@
         <v>1202989</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1178844</v>
+        <v>1178947</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1229203</v>
+        <v>1226024</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.8595610582972697</v>
+        <v>0.8595610582972696</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.842308792392126</v>
+        <v>0.8423824024977165</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8782916927519255</v>
+        <v>0.8760197741387666</v>
       </c>
     </row>
     <row r="45">
@@ -3528,19 +3528,19 @@
         <v>32791</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>22221</v>
+        <v>22259</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>45446</v>
+        <v>45510</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.04804894347078335</v>
+        <v>0.04804894347078337</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.03256078739000523</v>
+        <v>0.03261715692029166</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.06659282322750713</v>
+        <v>0.06668646962620729</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>38</v>
@@ -3549,19 +3549,19 @@
         <v>27168</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>19702</v>
+        <v>19533</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>37125</v>
+        <v>37215</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.03788547274247241</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.02747429388921099</v>
+        <v>0.02723916106823587</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.0517717583138364</v>
+        <v>0.05189692292489074</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>66</v>
@@ -3570,19 +3570,19 @@
         <v>59958</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>45782</v>
+        <v>45891</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>75721</v>
+        <v>76269</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.04284135958317026</v>
+        <v>0.04284135958317025</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.03271204207347031</v>
+        <v>0.03278977528544419</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.05410415210572339</v>
+        <v>0.05449593452172955</v>
       </c>
     </row>
     <row r="46">
@@ -3599,19 +3599,19 @@
         <v>56419</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>43641</v>
+        <v>42088</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>73293</v>
+        <v>69776</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.08267200354913706</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.06394855386594862</v>
+        <v>0.06167301297255523</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1073987866122177</v>
+        <v>0.1022447379349072</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>87</v>
@@ -3620,19 +3620,19 @@
         <v>61515</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>50059</v>
+        <v>50928</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>74090</v>
+        <v>74400</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.08578296562777933</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.06980713823329154</v>
+        <v>0.07101994486874241</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1033196538506322</v>
+        <v>0.1037509784106792</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>138</v>
@@ -3641,19 +3641,19 @@
         <v>117934</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>96954</v>
+        <v>99821</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>137222</v>
+        <v>136700</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.08426600587656891</v>
+        <v>0.08426600587656889</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.06927586991592327</v>
+        <v>0.07132418570626026</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.09804824904211878</v>
+        <v>0.09767483536635478</v>
       </c>
     </row>
     <row r="47">
@@ -3670,19 +3670,19 @@
         <v>3651</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>10228</v>
+        <v>11203</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.005349486163132878</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.00156690967969308</v>
+        <v>0.001572529493651698</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.0149870324923672</v>
+        <v>0.01641539839063262</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>6</v>
@@ -3691,19 +3691,19 @@
         <v>4237</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2082</v>
+        <v>1410</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>9271</v>
+        <v>8418</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.00590917280131395</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.002903088736000729</v>
+        <v>0.001966865125559045</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01292798930278787</v>
+        <v>0.0117386370088852</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>9</v>
@@ -3712,19 +3712,19 @@
         <v>7888</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3628</v>
+        <v>3679</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>15573</v>
+        <v>14515</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.005636259766070039</v>
+        <v>0.005636259766070038</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.002592046099898691</v>
+        <v>0.002628835092716811</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01112710601283482</v>
+        <v>0.01037118341323301</v>
       </c>
     </row>
     <row r="48">
@@ -3745,19 +3745,19 @@
         <v>6930</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3118</v>
+        <v>3084</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>14335</v>
+        <v>13441</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.01173049237036254</v>
+        <v>0.01173049237036253</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.005277840749717252</v>
+        <v>0.005221246668156416</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.02426748313224598</v>
+        <v>0.02275313501337438</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>11</v>
@@ -3766,19 +3766,19 @@
         <v>7048</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>3763</v>
+        <v>3704</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>12168</v>
+        <v>12474</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.01201672517436948</v>
+        <v>0.01201672517436949</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.006415547625843521</v>
+        <v>0.006315004082220994</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.02074436512681454</v>
+        <v>0.02126606339679986</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>18</v>
@@ -3787,19 +3787,19 @@
         <v>13978</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>8629</v>
+        <v>8423</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>21653</v>
+        <v>21864</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.01187310075978162</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.007329629428183562</v>
+        <v>0.007154717000681593</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.01839283445589944</v>
+        <v>0.01857177083740512</v>
       </c>
     </row>
     <row r="49">
@@ -3816,19 +3816,19 @@
         <v>3645</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>10559</v>
+        <v>11709</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.006170017420003051</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.001684198025740413</v>
+        <v>0.001673450452934341</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.01787472459911596</v>
+        <v>0.01982132668332454</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>2</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>4079</v>
+        <v>4119</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.002277107416921428</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.006953868258016195</v>
+        <v>0.007021887506128296</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>5</v>
@@ -3858,19 +3858,19 @@
         <v>4980</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1974</v>
+        <v>1669</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>11702</v>
+        <v>12810</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.004230471644951233</v>
+        <v>0.004230471644951232</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.001676902707190634</v>
+        <v>0.001417361487233608</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.009939826334253745</v>
+        <v>0.01088134687511721</v>
       </c>
     </row>
     <row r="50">
@@ -3934,19 +3934,19 @@
         <v>3719</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>8399</v>
+        <v>8471</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.006296031068464651</v>
+        <v>0.006296031068464652</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.001593627979508112</v>
+        <v>0.001597971351384925</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.01421863590457755</v>
+        <v>0.01434023723075608</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>6</v>
@@ -3955,19 +3955,19 @@
         <v>3897</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>1405</v>
+        <v>1278</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>7796</v>
+        <v>8097</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.00664423462828961</v>
+        <v>0.006644234628289611</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.002394871962885093</v>
+        <v>0.002178433506592209</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.01329142483110489</v>
+        <v>0.01380392041913369</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>10</v>
@@ -3976,19 +3976,19 @@
         <v>7616</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>3796</v>
+        <v>3517</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>14021</v>
+        <v>13704</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.006469514848665554</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.003224136038172362</v>
+        <v>0.002987124142943629</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.01190945455358946</v>
+        <v>0.01164034359953659</v>
       </c>
     </row>
     <row r="52">
@@ -4052,19 +4052,19 @@
         <v>6266</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2472</v>
+        <v>2122</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>13231</v>
+        <v>14170</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01060768504076805</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.004184104587895567</v>
+        <v>0.003592211486939973</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02239803867816121</v>
+        <v>0.02398813724523668</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>9</v>
@@ -4073,19 +4073,19 @@
         <v>6076</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>2795</v>
+        <v>2703</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>11419</v>
+        <v>11067</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.01035861037872956</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.004764768141332763</v>
+        <v>0.00460847280698857</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.01946854692116409</v>
+        <v>0.01886745762313514</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>15</v>
@@ -4094,19 +4094,19 @@
         <v>12342</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>6860</v>
+        <v>6884</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>20546</v>
+        <v>19933</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.01048358977320553</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.005826870110731267</v>
+        <v>0.005847381586411341</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.0174520427920687</v>
+        <v>0.01693122601602192</v>
       </c>
     </row>
     <row r="54">
@@ -4123,19 +4123,19 @@
         <v>15105</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>9172</v>
+        <v>9763</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>23617</v>
+        <v>24811</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.02557088307422929</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.01552604310212868</v>
+        <v>0.01652729730823543</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.03997990858063007</v>
+        <v>0.04200133913258183</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>10</v>
@@ -4144,19 +4144,19 @@
         <v>6772</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>3430</v>
+        <v>3346</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>12191</v>
+        <v>11981</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.0115461388480118</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.005848147409373694</v>
+        <v>0.00570500224933221</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.02078491746163222</v>
+        <v>0.02042563122024778</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>27</v>
@@ -4165,19 +4165,19 @@
         <v>21878</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>14504</v>
+        <v>14755</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>31627</v>
+        <v>32583</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.01858340240074603</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01231991987164048</v>
+        <v>0.01253335402366522</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.02686427955499033</v>
+        <v>0.02767665917372493</v>
       </c>
     </row>
     <row r="55">
@@ -4194,19 +4194,19 @@
         <v>502094</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>484677</v>
+        <v>486226</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>517274</v>
+        <v>518390</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.8499593368356347</v>
+        <v>0.8499593368356348</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.8204748343509084</v>
+        <v>0.8230976076928919</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.8756570198585232</v>
+        <v>0.8775450062604879</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>829</v>
@@ -4215,19 +4215,19 @@
         <v>493647</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>479599</v>
+        <v>479212</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>507984</v>
+        <v>507032</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.8416132707560522</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.8176640560764358</v>
+        <v>0.8170033282234522</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.8660566726978146</v>
+        <v>0.8644345419396747</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1378</v>
@@ -4236,19 +4236,19 @@
         <v>995741</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>970768</v>
+        <v>971520</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1016178</v>
+        <v>1015560</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.8458011165864785</v>
+        <v>0.8458011165864784</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.8245891253394338</v>
+        <v>0.82522807469488</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.8631612899650082</v>
+        <v>0.8626364662400873</v>
       </c>
     </row>
     <row r="56">
@@ -4265,19 +4265,19 @@
         <v>29996</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>21699</v>
+        <v>20673</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>41054</v>
+        <v>40967</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.05077789303444206</v>
+        <v>0.05077789303444205</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.03673231003878637</v>
+        <v>0.03499580490635192</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.06949799960512017</v>
+        <v>0.06934942984620351</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>40</v>
@@ -4286,19 +4286,19 @@
         <v>27444</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>19847</v>
+        <v>20235</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>36382</v>
+        <v>36706</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.04678843230397572</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.03383662388017169</v>
+        <v>0.03449848226245801</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.06202744157764818</v>
+        <v>0.0625793090430259</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>72</v>
@@ -4307,19 +4307,19 @@
         <v>57440</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>45789</v>
+        <v>45405</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>71923</v>
+        <v>71360</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.04879024325615643</v>
+        <v>0.04879024325615642</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.03889427344388536</v>
+        <v>0.03856772345681267</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.06109270243526815</v>
+        <v>0.06061459957279274</v>
       </c>
     </row>
     <row r="57">
@@ -4336,19 +4336,19 @@
         <v>60597</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>47474</v>
+        <v>46696</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>74300</v>
+        <v>74622</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1025796105051035</v>
+        <v>0.1025796105051034</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.08036561250682381</v>
+        <v>0.07904865723126099</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1257775126335914</v>
+        <v>0.1263227671771265</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>101</v>
@@ -4357,19 +4357,19 @@
         <v>67481</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>55684</v>
+        <v>55320</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>80290</v>
+        <v>79960</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.1150484039958376</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.09493504355963896</v>
+        <v>0.09431378345808319</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.1368855877272914</v>
+        <v>0.136323800722542</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>167</v>
@@ -4378,19 +4378,19 @@
         <v>128078</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>110771</v>
+        <v>110724</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>149111</v>
+        <v>147800</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.1087918773481086</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.09409067334811927</v>
+        <v>0.09405138086176619</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.1266575807514215</v>
+        <v>0.1255442915966638</v>
       </c>
     </row>
     <row r="58">
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>7105</v>
+        <v>6596</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.0036172324350333</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.01202720332309688</v>
+        <v>0.01116520476517272</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>2</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>4545</v>
+        <v>4591</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.002235314718406785</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.007748503524418354</v>
+        <v>0.007827322911431104</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>4</v>
@@ -4452,16 +4452,16 @@
         <v>867</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>9122</v>
+        <v>8812</v>
       </c>
       <c r="U58" s="6" t="n">
-        <v>0.002928726236166515</v>
+        <v>0.002928726236166514</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.0007367844100761157</v>
+        <v>0.0007363523150541253</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.007748352626186223</v>
+        <v>0.007485404353397418</v>
       </c>
     </row>
     <row r="59">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>4795</v>
+        <v>4786</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.003444194179725072</v>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.01209209647567623</v>
+        <v>0.01206880452354439</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>5</v>
@@ -4503,19 +4503,19 @@
         <v>2622</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>5689</v>
+        <v>5886</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.006149806400551227</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.002113926289954336</v>
+        <v>0.002160380330937926</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.01334172606230431</v>
+        <v>0.01380477713291243</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>7</v>
@@ -4524,19 +4524,19 @@
         <v>3988</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>1673</v>
+        <v>1760</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>7986</v>
+        <v>7738</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.004846027937791304</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.002033017623829659</v>
+        <v>0.002138360743323256</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.009704280555950892</v>
+        <v>0.009402966723544128</v>
       </c>
     </row>
     <row r="60">
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>2728</v>
+        <v>3054</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.001435053848115728</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.006397064983907453</v>
+        <v>0.007161623392068567</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>1</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>2594</v>
+        <v>3071</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.0007435311362975756</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.003152668643570451</v>
+        <v>0.003732091372867514</v>
       </c>
     </row>
     <row r="62">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>3184</v>
+        <v>3889</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.001759021150860366</v>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.008029691952600879</v>
+        <v>0.009807678374784027</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>0</v>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>2828</v>
+        <v>3864</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.0008476358416693733</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.00343616195646721</v>
+        <v>0.004694870266701697</v>
       </c>
     </row>
     <row r="63">
@@ -4773,19 +4773,19 @@
         <v>2434</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>6323</v>
+        <v>7253</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.006137001645416077</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.001740438489983135</v>
+        <v>0.001773522221368682</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.01594474028416311</v>
+        <v>0.01828868002695335</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>3069</v>
+        <v>3094</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.001442520319695924</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.007198370741231316</v>
+        <v>0.007255827003989938</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>4</v>
@@ -4815,19 +4815,19 @@
         <v>3049</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>7179</v>
+        <v>7326</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.003704693590200181</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.0008475922870493621</v>
+        <v>0.0008823685055328785</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.008724097600806677</v>
+        <v>0.008901657142800931</v>
       </c>
     </row>
     <row r="65">
@@ -4844,19 +4844,19 @@
         <v>4191</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>1423</v>
+        <v>1621</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>8484</v>
+        <v>8374</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.0105688996489541</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.003587899400842136</v>
+        <v>0.004087049997405032</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.02139505786642985</v>
+        <v>0.0211156087343023</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>13</v>
@@ -4865,19 +4865,19 @@
         <v>7419</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>4206</v>
+        <v>4042</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>12069</v>
+        <v>12161</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.01739900597467847</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.009865056032912226</v>
+        <v>0.009480649364818378</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.02830565525712214</v>
+        <v>0.0285221437122768</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>19</v>
@@ -4886,19 +4886,19 @@
         <v>11610</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>6646</v>
+        <v>7418</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>17548</v>
+        <v>17954</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.01410771927169313</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.008075484879357575</v>
+        <v>0.009013436428733194</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.02132390094029976</v>
+        <v>0.02181650483883336</v>
       </c>
     </row>
     <row r="66">
@@ -4915,19 +4915,19 @@
         <v>349417</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>338345</v>
+        <v>338991</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>360110</v>
+        <v>359992</v>
       </c>
       <c r="G66" s="6" t="n">
-        <v>0.8811213614564268</v>
+        <v>0.8811213614564267</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.8532021898681361</v>
+        <v>0.8548306439680783</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.908087259336489</v>
+        <v>0.907789123277832</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>713</v>
@@ -4936,19 +4936,19 @@
         <v>372927</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>362559</v>
+        <v>363080</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>383037</v>
+        <v>382661</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.8746262637268418</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.8503111221369622</v>
+        <v>0.8515332067327661</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.8983376155997851</v>
+        <v>0.8974568778361104</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>1202</v>
@@ -4957,19 +4957,19 @@
         <v>722343</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>707706</v>
+        <v>705318</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>737767</v>
+        <v>733989</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.8777561167294898</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.8599693049980995</v>
+        <v>0.8570672812918648</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.8964980908055874</v>
+        <v>0.8919079494581363</v>
       </c>
     </row>
     <row r="67">
@@ -4986,19 +4986,19 @@
         <v>13902</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>9032</v>
+        <v>8678</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>21476</v>
+        <v>21598</v>
       </c>
       <c r="G67" s="6" t="n">
-        <v>0.03505690575818374</v>
+        <v>0.03505690575818373</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.02277677875073634</v>
+        <v>0.0218824181397326</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.05415486510527652</v>
+        <v>0.05446298787422349</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>30</v>
@@ -5007,19 +5007,19 @@
         <v>17635</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>12155</v>
+        <v>12247</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>24617</v>
+        <v>24596</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.04136016765325067</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.02850832092993538</v>
+        <v>0.02872385925890905</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.05773475714328227</v>
+        <v>0.05768494865929318</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>50</v>
@@ -5028,19 +5028,19 @@
         <v>31537</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>22971</v>
+        <v>24070</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>40617</v>
+        <v>42313</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>0.03832275636398091</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.02791313828083546</v>
+        <v>0.02924828645136948</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.04935588304175429</v>
+        <v>0.05141663632307738</v>
       </c>
     </row>
     <row r="68">
@@ -5057,19 +5057,19 @@
         <v>37820</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>28184</v>
+        <v>29109</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>48208</v>
+        <v>47940</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.09537139318349408</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.07107231467853846</v>
+        <v>0.07340401000773493</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.1215665008373536</v>
+        <v>0.1208896547992794</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>70</v>
@@ -5078,19 +5078,19 @@
         <v>41414</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>32958</v>
+        <v>33214</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>51319</v>
+        <v>51203</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.0971287758385081</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.07729730646667134</v>
+        <v>0.07789793768388839</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.1203588447076356</v>
+        <v>0.1200870713005774</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>124</v>
@@ -5099,19 +5099,19 @@
         <v>79235</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>65898</v>
+        <v>67126</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>92675</v>
+        <v>93118</v>
       </c>
       <c r="U68" s="6" t="n">
         <v>0.09628192955403372</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.08007564616734761</v>
+        <v>0.08156812217011172</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.1126143419741521</v>
+        <v>0.1131526349506639</v>
       </c>
     </row>
     <row r="69">
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>3910</v>
+        <v>3579</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.002966078723700659</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.00986041659687676</v>
+        <v>0.009024123627417115</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>1</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>3015</v>
+        <v>4476</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.001421013081104277</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.007070574668086608</v>
+        <v>0.01049710065281334</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>3</v>
@@ -5170,19 +5170,19 @@
         <v>1782</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>5383</v>
+        <v>4805</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.002165548196987359</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.0007082363177234009</v>
+        <v>0.0007095696980758437</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.006541178317680888</v>
+        <v>0.005838873838538581</v>
       </c>
     </row>
     <row r="70">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>5255</v>
+        <v>5859</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.003426339106827454</v>
@@ -5215,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.01727900958337685</v>
+        <v>0.019266872119449</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>5</v>
@@ -5224,19 +5224,19 @@
         <v>2607</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>911</v>
+        <v>970</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>5623</v>
+        <v>5872</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.005892991847944578</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.00206029976237736</v>
+        <v>0.002193424864096434</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.01271351816648599</v>
+        <v>0.01327523803715049</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>6</v>
@@ -5245,19 +5245,19 @@
         <v>3649</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>8334</v>
+        <v>8092</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.004888012088211976</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.001931711976804183</v>
+        <v>0.001933942599033662</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.01116488387770836</v>
+        <v>0.01084064257754608</v>
       </c>
     </row>
     <row r="71">
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>6980</v>
+        <v>6916</v>
       </c>
       <c r="G73" s="6" t="n">
         <v>0.006521828040130847</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="6" t="n">
-        <v>0.02295337879440965</v>
+        <v>0.02274090633232689</v>
       </c>
       <c r="J73" s="5" t="n">
         <v>1</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="5" t="n">
-        <v>3010</v>
+        <v>3309</v>
       </c>
       <c r="N73" s="6" t="n">
         <v>0.001347163126359205</v>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="P73" s="6" t="n">
-        <v>0.006804640025974344</v>
+        <v>0.007480500595874009</v>
       </c>
       <c r="Q73" s="5" t="n">
         <v>3</v>
@@ -5410,19 +5410,19 @@
         <v>2579</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="T73" s="5" t="n">
-        <v>7081</v>
+        <v>7035</v>
       </c>
       <c r="U73" s="6" t="n">
         <v>0.003455458880784582</v>
       </c>
       <c r="V73" s="6" t="n">
-        <v>0.0007976994617364245</v>
+        <v>0.0008008176155323975</v>
       </c>
       <c r="W73" s="6" t="n">
-        <v>0.009486864279069107</v>
+        <v>0.009424686512996737</v>
       </c>
     </row>
     <row r="74">
@@ -5533,19 +5533,19 @@
         <v>4389</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>1613</v>
+        <v>1836</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>9037</v>
+        <v>9368</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.01443317176100735</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.005305359935067792</v>
+        <v>0.006038536079579484</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.0297152031839423</v>
+        <v>0.03080423713610812</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>5</v>
@@ -5554,19 +5554,19 @@
         <v>3035</v>
       </c>
       <c r="L76" s="5" t="n">
-        <v>1212</v>
+        <v>1190</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>6657</v>
+        <v>6612</v>
       </c>
       <c r="N76" s="6" t="n">
-        <v>0.00686256329240368</v>
+        <v>0.006862563292403679</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0.00273906269844894</v>
+        <v>0.002689732445881608</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.01504999172094415</v>
+        <v>0.0149477465948248</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>11</v>
@@ -5575,19 +5575,19 @@
         <v>7425</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>3720</v>
+        <v>3823</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>13152</v>
+        <v>12628</v>
       </c>
       <c r="U76" s="6" t="n">
         <v>0.009947030008363538</v>
       </c>
       <c r="V76" s="6" t="n">
-        <v>0.004983088978059606</v>
+        <v>0.005121919853641288</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.01762043728923567</v>
+        <v>0.01691797839430075</v>
       </c>
     </row>
     <row r="77">
@@ -5604,19 +5604,19 @@
         <v>271517</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>261053</v>
+        <v>260269</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>279526</v>
+        <v>279544</v>
       </c>
       <c r="G77" s="6" t="n">
         <v>0.8928115941372927</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.8584041674443939</v>
+        <v>0.8558263817548024</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.9191471715297116</v>
+        <v>0.9192081850059554</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>747</v>
@@ -5625,19 +5625,19 @@
         <v>386448</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>372929</v>
+        <v>375643</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>395791</v>
+        <v>396966</v>
       </c>
       <c r="N77" s="6" t="n">
-        <v>0.873698069169364</v>
+        <v>0.8736980691693639</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>0.8431340423505611</v>
+        <v>0.8492692643881492</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.8948204407673541</v>
+        <v>0.8974779796039991</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>1152</v>
@@ -5646,19 +5646,19 @@
         <v>657965</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>643018</v>
+        <v>643132</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>671287</v>
+        <v>670851</v>
       </c>
       <c r="U77" s="6" t="n">
         <v>0.8814854262665824</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.8614602242702595</v>
+        <v>0.8616126434381252</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.8993319965624175</v>
+        <v>0.8987484906145975</v>
       </c>
     </row>
     <row r="78">
@@ -5675,19 +5675,19 @@
         <v>9111</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>5169</v>
+        <v>5318</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>14907</v>
+        <v>14767</v>
       </c>
       <c r="G78" s="6" t="n">
-        <v>0.0299596426378129</v>
+        <v>0.02995964263781289</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.01699829549970579</v>
+        <v>0.01748823994651298</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.04901894977954734</v>
+        <v>0.04855823461283721</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>38</v>
@@ -5696,19 +5696,19 @@
         <v>22418</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>16781</v>
+        <v>16239</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>31011</v>
+        <v>30958</v>
       </c>
       <c r="N78" s="6" t="n">
-        <v>0.05068277177260296</v>
+        <v>0.05068277177260294</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0.03793892798099045</v>
+        <v>0.03671336791326722</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.07011144308979797</v>
+        <v>0.06999148037534748</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>51</v>
@@ -5717,19 +5717,19 @@
         <v>31529</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>23368</v>
+        <v>23794</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>40742</v>
+        <v>40818</v>
       </c>
       <c r="U78" s="6" t="n">
         <v>0.04223961923976732</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.03130654577487651</v>
+        <v>0.03187779081456416</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.05458259481463884</v>
+        <v>0.05468421307342834</v>
       </c>
     </row>
     <row r="79">
@@ -5746,19 +5746,19 @@
         <v>29294</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>21873</v>
+        <v>21395</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>39766</v>
+        <v>39089</v>
       </c>
       <c r="G79" s="6" t="n">
-        <v>0.09632498724385365</v>
+        <v>0.09632498724385363</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.07192400185737791</v>
+        <v>0.07035027601831505</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.1307591865345333</v>
+        <v>0.1285344989720702</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>69</v>
@@ -5767,19 +5767,19 @@
         <v>41449</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>32602</v>
+        <v>32842</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>52373</v>
+        <v>51369</v>
       </c>
       <c r="N79" s="6" t="n">
-        <v>0.09370896291424184</v>
+        <v>0.09370896291424183</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.07370775687515901</v>
+        <v>0.07424953314715237</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.1184080319676205</v>
+        <v>0.1161361793534984</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>110</v>
@@ -5788,19 +5788,19 @@
         <v>70743</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>58380</v>
+        <v>58881</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>84088</v>
+        <v>84229</v>
       </c>
       <c r="U79" s="6" t="n">
         <v>0.09477480062151361</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.07821296727656388</v>
+        <v>0.07888381763897781</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.1126537458403276</v>
+        <v>0.1128430957058462</v>
       </c>
     </row>
     <row r="80">
@@ -5868,19 +5868,19 @@
         <v>65398</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>49862</v>
+        <v>49346</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>87141</v>
+        <v>85513</v>
       </c>
       <c r="G81" s="6" t="n">
         <v>0.01911754161714951</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>0.01457590103365021</v>
+        <v>0.01442526973404322</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.02547367789169946</v>
+        <v>0.02499793997470616</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>92</v>
@@ -5889,19 +5889,19 @@
         <v>84155</v>
       </c>
       <c r="L81" s="5" t="n">
-        <v>65764</v>
+        <v>67093</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>104830</v>
+        <v>106667</v>
       </c>
       <c r="N81" s="6" t="n">
         <v>0.02338248475789028</v>
       </c>
       <c r="O81" s="6" t="n">
-        <v>0.01827250849051532</v>
+        <v>0.01864190778531208</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>0.0291271770989474</v>
+        <v>0.02963746321991267</v>
       </c>
       <c r="Q81" s="5" t="n">
         <v>147</v>
@@ -5910,19 +5910,19 @@
         <v>149552</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>123575</v>
+        <v>127926</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>177688</v>
+        <v>178457</v>
       </c>
       <c r="U81" s="6" t="n">
         <v>0.02130415630178426</v>
       </c>
       <c r="V81" s="6" t="n">
-        <v>0.01760365725130402</v>
+        <v>0.01822347946997742</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.02531208114483181</v>
+        <v>0.02542161993336447</v>
       </c>
     </row>
     <row r="82">
@@ -5939,19 +5939,19 @@
         <v>13226</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>7130</v>
+        <v>7037</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>23422</v>
+        <v>22537</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.003866352867666983</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.002084188461106148</v>
+        <v>0.002057085500931483</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.006846825042746454</v>
+        <v>0.006588243724716692</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>11</v>
@@ -5960,19 +5960,19 @@
         <v>8038</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>4299</v>
+        <v>4158</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>14185</v>
+        <v>13868</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.002233402369124158</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.001194431393921817</v>
+        <v>0.001155389794348578</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.003941379044820432</v>
+        <v>0.003853195969573456</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>22</v>
@@ -5981,19 +5981,19 @@
         <v>21264</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>13728</v>
+        <v>13642</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>32821</v>
+        <v>33008</v>
       </c>
       <c r="U82" s="6" t="n">
-        <v>0.003029147441576541</v>
+        <v>0.00302914744157654</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.001955659370665017</v>
+        <v>0.001943301897268884</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.004675488615926822</v>
+        <v>0.004702060773577032</v>
       </c>
     </row>
     <row r="83">
@@ -6023,19 +6023,19 @@
         <v>3439</v>
       </c>
       <c r="L83" s="5" t="n">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>12230</v>
+        <v>12389</v>
       </c>
       <c r="N83" s="6" t="n">
         <v>0.0009555433543821508</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>0.0001712386101113944</v>
+        <v>0.0001705777113500817</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>0.003398214629004933</v>
+        <v>0.003442193222501711</v>
       </c>
       <c r="Q83" s="5" t="n">
         <v>3</v>
@@ -6044,19 +6044,19 @@
         <v>3439</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>11914</v>
+        <v>10010</v>
       </c>
       <c r="U83" s="6" t="n">
-        <v>0.000489902224144132</v>
+        <v>0.0004899022241441319</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>8.719707776478032e-05</v>
+        <v>8.77338909300696e-05</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.001697223171638213</v>
+        <v>0.001425892811671259</v>
       </c>
     </row>
     <row r="84">
@@ -6073,19 +6073,19 @@
         <v>24371</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>13909</v>
+        <v>13698</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>40518</v>
+        <v>39626</v>
       </c>
       <c r="G84" s="6" t="n">
         <v>0.007124351834016576</v>
       </c>
       <c r="H84" s="6" t="n">
-        <v>0.004065939375628437</v>
+        <v>0.004004426344114571</v>
       </c>
       <c r="I84" s="6" t="n">
-        <v>0.0118445205605175</v>
+        <v>0.01158365135239245</v>
       </c>
       <c r="J84" s="5" t="n">
         <v>24</v>
@@ -6094,19 +6094,19 @@
         <v>17734</v>
       </c>
       <c r="L84" s="5" t="n">
-        <v>11446</v>
+        <v>11743</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>26832</v>
+        <v>27586</v>
       </c>
       <c r="N84" s="6" t="n">
         <v>0.004927289004753822</v>
       </c>
       <c r="O84" s="6" t="n">
-        <v>0.003180237391423969</v>
+        <v>0.003262690787624728</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>0.007455171119443472</v>
+        <v>0.007664771319896735</v>
       </c>
       <c r="Q84" s="5" t="n">
         <v>42</v>
@@ -6115,19 +6115,19 @@
         <v>42105</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>31320</v>
+        <v>31004</v>
       </c>
       <c r="T84" s="5" t="n">
-        <v>63114</v>
+        <v>61115</v>
       </c>
       <c r="U84" s="6" t="n">
-        <v>0.005997928881354021</v>
+        <v>0.005997928881354023</v>
       </c>
       <c r="V84" s="6" t="n">
-        <v>0.00446156238639566</v>
+        <v>0.004416577831984368</v>
       </c>
       <c r="W84" s="6" t="n">
-        <v>0.008990811360346147</v>
+        <v>0.008705967286814985</v>
       </c>
     </row>
     <row r="85">
@@ -6147,16 +6147,16 @@
         <v>0</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>7191</v>
+        <v>6043</v>
       </c>
       <c r="G85" s="6" t="n">
-        <v>0.0003302160826526657</v>
+        <v>0.0003302160826526656</v>
       </c>
       <c r="H85" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I85" s="6" t="n">
-        <v>0.002102077747275696</v>
+        <v>0.001766618969194148</v>
       </c>
       <c r="J85" s="5" t="n">
         <v>6</v>
@@ -6165,19 +6165,19 @@
         <v>4893</v>
       </c>
       <c r="L85" s="5" t="n">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>10984</v>
+        <v>10414</v>
       </c>
       <c r="N85" s="6" t="n">
         <v>0.001359542427719608</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>0.0004893251472840452</v>
+        <v>0.0004883747717546762</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>0.003051778944891751</v>
+        <v>0.002893500804455585</v>
       </c>
       <c r="Q85" s="5" t="n">
         <v>7</v>
@@ -6186,19 +6186,19 @@
         <v>6023</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>2733</v>
+        <v>2557</v>
       </c>
       <c r="T85" s="5" t="n">
-        <v>12994</v>
+        <v>11534</v>
       </c>
       <c r="U85" s="6" t="n">
-        <v>0.0008579464713428821</v>
+        <v>0.000857946471342882</v>
       </c>
       <c r="V85" s="6" t="n">
-        <v>0.0003893616218844799</v>
+        <v>0.0003642465105871617</v>
       </c>
       <c r="W85" s="6" t="n">
-        <v>0.001850978534502996</v>
+        <v>0.001643018282216821</v>
       </c>
     </row>
     <row r="86">
@@ -6215,19 +6215,19 @@
         <v>34742</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>24244</v>
+        <v>23005</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>48773</v>
+        <v>48279</v>
       </c>
       <c r="G86" s="6" t="n">
         <v>0.01015593041174568</v>
       </c>
       <c r="H86" s="6" t="n">
-        <v>0.007087312751458907</v>
+        <v>0.006724891717042139</v>
       </c>
       <c r="I86" s="6" t="n">
-        <v>0.01425767175296438</v>
+        <v>0.01411315831301202</v>
       </c>
       <c r="J86" s="5" t="n">
         <v>33</v>
@@ -6236,19 +6236,19 @@
         <v>25499</v>
       </c>
       <c r="L86" s="5" t="n">
-        <v>17860</v>
+        <v>18299</v>
       </c>
       <c r="M86" s="5" t="n">
-        <v>35862</v>
+        <v>35461</v>
       </c>
       <c r="N86" s="6" t="n">
         <v>0.007084954133204566</v>
       </c>
       <c r="O86" s="6" t="n">
-        <v>0.004962320552897461</v>
+        <v>0.005084450588077853</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>0.009964351232463446</v>
+        <v>0.009852804371628722</v>
       </c>
       <c r="Q86" s="5" t="n">
         <v>64</v>
@@ -6257,19 +6257,19 @@
         <v>60241</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>47197</v>
+        <v>46895</v>
       </c>
       <c r="T86" s="5" t="n">
-        <v>76304</v>
+        <v>77583</v>
       </c>
       <c r="U86" s="6" t="n">
         <v>0.008581456472649584</v>
       </c>
       <c r="V86" s="6" t="n">
-        <v>0.006723313001067988</v>
+        <v>0.006680283695945554</v>
       </c>
       <c r="W86" s="6" t="n">
-        <v>0.01086969514719655</v>
+        <v>0.01105191174853041</v>
       </c>
     </row>
     <row r="87">
@@ -6286,19 +6286,19 @@
         <v>46908</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>35221</v>
+        <v>32448</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>61914</v>
+        <v>62577</v>
       </c>
       <c r="G87" s="6" t="n">
         <v>0.01371243767521485</v>
       </c>
       <c r="H87" s="6" t="n">
-        <v>0.01029605918281001</v>
+        <v>0.009485435034111383</v>
       </c>
       <c r="I87" s="6" t="n">
-        <v>0.01809907695909347</v>
+        <v>0.01829296638874374</v>
       </c>
       <c r="J87" s="5" t="n">
         <v>60</v>
@@ -6307,19 +6307,19 @@
         <v>44505</v>
       </c>
       <c r="L87" s="5" t="n">
-        <v>33829</v>
+        <v>34651</v>
       </c>
       <c r="M87" s="5" t="n">
-        <v>56969</v>
+        <v>57490</v>
       </c>
       <c r="N87" s="6" t="n">
         <v>0.01236582600134845</v>
       </c>
       <c r="O87" s="6" t="n">
-        <v>0.009399396646633739</v>
+        <v>0.00962772815988047</v>
       </c>
       <c r="P87" s="6" t="n">
-        <v>0.01582886406084231</v>
+        <v>0.01597354638539947</v>
       </c>
       <c r="Q87" s="5" t="n">
         <v>106</v>
@@ -6328,19 +6328,19 @@
         <v>91413</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>73945</v>
+        <v>74594</v>
       </c>
       <c r="T87" s="5" t="n">
-        <v>112445</v>
+        <v>110657</v>
       </c>
       <c r="U87" s="6" t="n">
         <v>0.0130220367100884</v>
       </c>
       <c r="V87" s="6" t="n">
-        <v>0.01053367296108176</v>
+        <v>0.01062617340533114</v>
       </c>
       <c r="W87" s="6" t="n">
-        <v>0.01601811476967736</v>
+        <v>0.01576333169350707</v>
       </c>
     </row>
     <row r="88">
@@ -6357,19 +6357,19 @@
         <v>2939631</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>2891002</v>
+        <v>2894961</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>2983022</v>
+        <v>2984639</v>
       </c>
       <c r="G88" s="6" t="n">
-        <v>0.8593354673951267</v>
+        <v>0.8593354673951266</v>
       </c>
       <c r="H88" s="6" t="n">
-        <v>0.8451197512888374</v>
+        <v>0.8462770484932072</v>
       </c>
       <c r="I88" s="6" t="n">
-        <v>0.8720197373268259</v>
+        <v>0.872492599537824</v>
       </c>
       <c r="J88" s="5" t="n">
         <v>4523</v>
@@ -6378,19 +6378,19 @@
         <v>3080217</v>
       </c>
       <c r="L88" s="5" t="n">
-        <v>3040991</v>
+        <v>3039189</v>
       </c>
       <c r="M88" s="5" t="n">
-        <v>3121203</v>
+        <v>3116337</v>
       </c>
       <c r="N88" s="6" t="n">
         <v>0.8558409473021453</v>
       </c>
       <c r="O88" s="6" t="n">
-        <v>0.8449420801510801</v>
+        <v>0.844441300176948</v>
       </c>
       <c r="P88" s="6" t="n">
-        <v>0.8672288956892311</v>
+        <v>0.8658769951481952</v>
       </c>
       <c r="Q88" s="5" t="n">
         <v>7370</v>
@@ -6399,19 +6399,19 @@
         <v>6019848</v>
       </c>
       <c r="S88" s="5" t="n">
-        <v>5958263</v>
+        <v>5961091</v>
       </c>
       <c r="T88" s="5" t="n">
-        <v>6074929</v>
+        <v>6074484</v>
       </c>
       <c r="U88" s="6" t="n">
-        <v>0.8575438446937425</v>
+        <v>0.8575438446937423</v>
       </c>
       <c r="V88" s="6" t="n">
-        <v>0.8487709552366904</v>
+        <v>0.849173706738533</v>
       </c>
       <c r="W88" s="6" t="n">
-        <v>0.8653903025864709</v>
+        <v>0.8653268516550829</v>
       </c>
     </row>
     <row r="89">
@@ -6428,19 +6428,19 @@
         <v>157607</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>132713</v>
+        <v>131453</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>189081</v>
+        <v>187554</v>
       </c>
       <c r="G89" s="6" t="n">
         <v>0.0460728870369437</v>
       </c>
       <c r="H89" s="6" t="n">
-        <v>0.03879561785568712</v>
+        <v>0.03842748082249369</v>
       </c>
       <c r="I89" s="6" t="n">
-        <v>0.05527353771560223</v>
+        <v>0.05482717678913378</v>
       </c>
       <c r="J89" s="5" t="n">
         <v>194</v>
@@ -6449,19 +6449,19 @@
         <v>144951</v>
       </c>
       <c r="L89" s="5" t="n">
-        <v>123942</v>
+        <v>124979</v>
       </c>
       <c r="M89" s="5" t="n">
-        <v>169166</v>
+        <v>167566</v>
       </c>
       <c r="N89" s="6" t="n">
-        <v>0.04027471159105582</v>
+        <v>0.04027471159105583</v>
       </c>
       <c r="O89" s="6" t="n">
-        <v>0.03443744983214728</v>
+        <v>0.03472556210716971</v>
       </c>
       <c r="P89" s="6" t="n">
-        <v>0.0470028741907164</v>
+        <v>0.04655824207719882</v>
       </c>
       <c r="Q89" s="5" t="n">
         <v>334</v>
@@ -6470,19 +6470,19 @@
         <v>302558</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>272434</v>
+        <v>263086</v>
       </c>
       <c r="T89" s="5" t="n">
-        <v>341162</v>
+        <v>338392</v>
       </c>
       <c r="U89" s="6" t="n">
-        <v>0.04310019193745756</v>
+        <v>0.04310019193745755</v>
       </c>
       <c r="V89" s="6" t="n">
-        <v>0.0388090069671254</v>
+        <v>0.03747732669346725</v>
       </c>
       <c r="W89" s="6" t="n">
-        <v>0.0485995264336315</v>
+        <v>0.04820493794704726</v>
       </c>
     </row>
     <row r="90">
@@ -6499,19 +6499,19 @@
         <v>293689</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>259175</v>
+        <v>258219</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>328627</v>
+        <v>329367</v>
       </c>
       <c r="G90" s="6" t="n">
-        <v>0.08585336246500291</v>
+        <v>0.0858533624650029</v>
       </c>
       <c r="H90" s="6" t="n">
-        <v>0.07576401539497515</v>
+        <v>0.07548441360341041</v>
       </c>
       <c r="I90" s="6" t="n">
-        <v>0.0960666752882726</v>
+        <v>0.09628310566691653</v>
       </c>
       <c r="J90" s="5" t="n">
         <v>454</v>
@@ -6520,19 +6520,19 @@
         <v>353753</v>
       </c>
       <c r="L90" s="5" t="n">
-        <v>320576</v>
+        <v>323031</v>
       </c>
       <c r="M90" s="5" t="n">
-        <v>385607</v>
+        <v>391722</v>
       </c>
       <c r="N90" s="6" t="n">
         <v>0.09829051674536146</v>
       </c>
       <c r="O90" s="6" t="n">
-        <v>0.08907230973986807</v>
+        <v>0.08975434944558659</v>
       </c>
       <c r="P90" s="6" t="n">
-        <v>0.1071413780779731</v>
+        <v>0.1088401850974085</v>
       </c>
       <c r="Q90" s="5" t="n">
         <v>740</v>
@@ -6541,19 +6541,19 @@
         <v>647442</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>602915</v>
+        <v>601077</v>
       </c>
       <c r="T90" s="5" t="n">
-        <v>698961</v>
+        <v>698417</v>
       </c>
       <c r="U90" s="6" t="n">
-        <v>0.09222982829047145</v>
+        <v>0.09222982829047144</v>
       </c>
       <c r="V90" s="6" t="n">
-        <v>0.08588693945878557</v>
+        <v>0.08562504356242095</v>
       </c>
       <c r="W90" s="6" t="n">
-        <v>0.09956896238115899</v>
+        <v>0.09949136829577607</v>
       </c>
     </row>
     <row r="91">
@@ -6570,19 +6570,19 @@
         <v>18745</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>9967</v>
+        <v>9862</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>36833</v>
+        <v>34317</v>
       </c>
       <c r="G91" s="6" t="n">
         <v>0.005479706770409412</v>
       </c>
       <c r="H91" s="6" t="n">
-        <v>0.002913491716210268</v>
+        <v>0.002882793816324616</v>
       </c>
       <c r="I91" s="6" t="n">
-        <v>0.01076721591348537</v>
+        <v>0.01003178369365499</v>
       </c>
       <c r="J91" s="5" t="n">
         <v>15</v>
@@ -6591,19 +6591,19 @@
         <v>12153</v>
       </c>
       <c r="L91" s="5" t="n">
-        <v>6974</v>
+        <v>6673</v>
       </c>
       <c r="M91" s="5" t="n">
-        <v>18948</v>
+        <v>20139</v>
       </c>
       <c r="N91" s="6" t="n">
         <v>0.003376665913822959</v>
       </c>
       <c r="O91" s="6" t="n">
-        <v>0.001937698029030656</v>
+        <v>0.00185423195746135</v>
       </c>
       <c r="P91" s="6" t="n">
-        <v>0.005264734749277471</v>
+        <v>0.00559558751538538</v>
       </c>
       <c r="Q91" s="5" t="n">
         <v>28</v>
@@ -6612,19 +6612,19 @@
         <v>30898</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>20089</v>
+        <v>20789</v>
       </c>
       <c r="T91" s="5" t="n">
-        <v>47376</v>
+        <v>48826</v>
       </c>
       <c r="U91" s="6" t="n">
         <v>0.004401488405556819</v>
       </c>
       <c r="V91" s="6" t="n">
-        <v>0.002861798113651036</v>
+        <v>0.002961418918141244</v>
       </c>
       <c r="W91" s="6" t="n">
-        <v>0.006748796339229289</v>
+        <v>0.00695544207790413</v>
       </c>
     </row>
     <row r="92">
